--- a/Applicant_Data.xlsx
+++ b/Applicant_Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Camp</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -417,59 +420,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66484349-C2AB-43E8-8E0F-202976623304}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
     </row>
